--- a/util/fitaero/example/Example_Initdis_Simplex.xlsx
+++ b/util/fitaero/example/Example_Initdis_Simplex.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Test_Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="INPUT" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Test_Initdis" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="FILLDN" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
   <si>
     <t xml:space="preserve">URBAN BACKGROUND AEROSOL</t>
   </si>
@@ -190,6 +190,9 @@
     <t xml:space="preserve">from user_log.txt</t>
   </si>
   <si>
+    <t xml:space="preserve">from inaero.dat</t>
+  </si>
+  <si>
     <t xml:space="preserve">GMD_M Estimate</t>
   </si>
   <si>
@@ -208,10 +211,13 @@
     <t xml:space="preserve">BETA3</t>
   </si>
   <si>
-    <t xml:space="preserve">Mode 3: 50-100 nm</t>
+    <t xml:space="preserve">Mode 3: 10-31 nm</t>
   </si>
   <si>
-    <t xml:space="preserve">Mode 4: 100-1000 nm</t>
+    <t xml:space="preserve">Mode 4: 70-250 nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode 5: 250-1000 nm</t>
   </si>
   <si>
     <t xml:space="preserve">copy mode 4 dN(i) meas and Dp(i) to: Initdis3.xls</t>
@@ -254,6 +260,18 @@
   </si>
   <si>
     <t xml:space="preserve">dN(i) Fitaero (dens=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dp[nm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dN_obs[cm-3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILL IN →</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dN_est[cm-3]</t>
   </si>
 </sst>
 </file>
@@ -368,12 +386,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -402,7 +427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,6 +464,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -452,6 +481,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,7 +504,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,7 +592,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -593,10 +638,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0696385845611384"/>
-          <c:y val="0.213161482215888"/>
-          <c:w val="0.717856693111699"/>
-          <c:h val="0.678770603544429"/>
+          <c:x val="0.0696122860020141"/>
+          <c:y val="0.213320104179586"/>
+          <c:w val="0.717522658610272"/>
+          <c:h val="0.67853156393402"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -687,33 +732,6 @@
                 <c:pt idx="8">
                   <c:v>18.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -749,33 +767,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>796.247155746377</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>792.82374779818</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>710.200339376965</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>660.782695119878</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>640.835560877071</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>578.910091787022</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>542.262350746067</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>525.438150187442</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>539.910461957901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>561.046691807722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,33 +861,6 @@
                 <c:pt idx="8">
                   <c:v>18.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -907,69 +871,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>541.66</c:v>
+                  <c:v>597.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577.63</c:v>
+                  <c:v>795.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>612.8</c:v>
+                  <c:v>802.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>636.21</c:v>
+                  <c:v>784.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>649.01</c:v>
+                  <c:v>913.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>652.26</c:v>
+                  <c:v>838.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>644.36</c:v>
+                  <c:v>819.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>625.98</c:v>
+                  <c:v>819.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>600.21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>564.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>521.17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>473.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>424.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>374.38</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>323.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>275.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>230.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>190.79</c:v>
+                  <c:v>710.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22272153"/>
-        <c:axId val="72992699"/>
+        <c:axId val="36388891"/>
+        <c:axId val="86148279"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22272153"/>
+        <c:axId val="36388891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,12 +938,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72992699"/>
+        <c:crossAx val="86148279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72992699"/>
+        <c:axId val="86148279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +985,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22272153"/>
+        <c:crossAx val="36388891"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1104,7 +1041,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1130,7 +1067,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Mode 3</a:t>
+              <a:t>Mode 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1150,10 +1087,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0665712685870715"/>
-          <c:y val="0.215693475333578"/>
-          <c:w val="0.71013500902134"/>
-          <c:h val="0.686008079324275"/>
+          <c:x val="0.0665464270166055"/>
+          <c:y val="0.215852015190494"/>
+          <c:w val="0.709870016792089"/>
+          <c:h val="0.685777287761852"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1213,150 +1150,126 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$17:$Y$17</c:f>
+              <c:f>Test_Initdis!$D$29:$U$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>37.9</c:v>
+                  <c:v>72.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.7</c:v>
+                  <c:v>77.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.7</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>89.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.5</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.2</c:v>
+                  <c:v>103.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.3</c:v>
+                  <c:v>111.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.6</c:v>
+                  <c:v>119.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.3</c:v>
+                  <c:v>128.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.3</c:v>
+                  <c:v>138.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.7</c:v>
+                  <c:v>148.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.5</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.8</c:v>
+                  <c:v>171.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.5</c:v>
+                  <c:v>184.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.7</c:v>
+                  <c:v>198.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111.4</c:v>
+                  <c:v>212.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>119.7</c:v>
+                  <c:v>228.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>138.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>148.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>171.5</c:v>
+                  <c:v>245.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$15:$Y$15</c:f>
+              <c:f>Test_Initdis!$D$27:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>564.35634672652</c:v>
+                  <c:v>641.058893787085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>592.318412654218</c:v>
+                  <c:v>624.781872068927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>619.902142675285</c:v>
+                  <c:v>579.412152859297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>648.953116200058</c:v>
+                  <c:v>526.442922432224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>691.681122728953</c:v>
+                  <c:v>455.491548145149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>695.561396639587</c:v>
+                  <c:v>384.571955470685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>676.139892021799</c:v>
+                  <c:v>325.824979460309</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>658.318402728287</c:v>
+                  <c:v>279.867488619622</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>655.589257212674</c:v>
+                  <c:v>232.348668866477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>641.058893787085</c:v>
+                  <c:v>188.745198190073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>624.781872068927</c:v>
+                  <c:v>158.390614233429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>579.412152859297</c:v>
+                  <c:v>131.290538897508</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>526.442922432224</c:v>
+                  <c:v>110.232084054637</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>455.491548145149</c:v>
+                  <c:v>88.6839908399312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>384.571955470685</c:v>
+                  <c:v>76.2965180641972</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>325.824979460309</c:v>
+                  <c:v>63.2112296205677</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>279.867488619622</c:v>
+                  <c:v>52.714619449158</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>232.348668866477</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>188.745198190073</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>158.390614233429</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>131.290538897508</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110.232084054637</c:v>
+                  <c:v>42.7530935415718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,7 +1281,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test_Initdis!$B$16:$B$16</c:f>
+              <c:f>Test_Initdis!$B$28:$B$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,161 +1333,137 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$17:$Y$17</c:f>
+              <c:f>Test_Initdis!$D$29:$U$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>37.9</c:v>
+                  <c:v>72.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.7</c:v>
+                  <c:v>77.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.7</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>89.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.5</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.2</c:v>
+                  <c:v>103.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.3</c:v>
+                  <c:v>111.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.6</c:v>
+                  <c:v>119.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.3</c:v>
+                  <c:v>128.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.3</c:v>
+                  <c:v>138.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.7</c:v>
+                  <c:v>148.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.5</c:v>
+                  <c:v>159.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.8</c:v>
+                  <c:v>171.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.5</c:v>
+                  <c:v>184.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.7</c:v>
+                  <c:v>198.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111.4</c:v>
+                  <c:v>212.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>119.7</c:v>
+                  <c:v>228.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>138.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>148.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>159.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>171.5</c:v>
+                  <c:v>245.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$16:$Y$16</c:f>
+              <c:f>Test_Initdis!$D$28:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>450.92</c:v>
+                  <c:v>397.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>483.69</c:v>
+                  <c:v>399.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>511.25</c:v>
+                  <c:v>402.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>532.97</c:v>
+                  <c:v>391.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>547.05</c:v>
+                  <c:v>381.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>553.17</c:v>
+                  <c:v>365.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>551.16</c:v>
+                  <c:v>349.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>541.15</c:v>
+                  <c:v>329.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>523.25</c:v>
+                  <c:v>308.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>498.63</c:v>
+                  <c:v>286.34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>468.02</c:v>
+                  <c:v>256.67</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>432.78</c:v>
+                  <c:v>233.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>393.84</c:v>
+                  <c:v>208.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>353.42</c:v>
+                  <c:v>184.55</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>312.45</c:v>
+                  <c:v>160.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>272.31</c:v>
+                  <c:v>138.62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>233.72</c:v>
+                  <c:v>117.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>197.71</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>164.66</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>134.88</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>109.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>86.98</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="99881772"/>
-        <c:axId val="72694375"/>
+        <c:axId val="14680635"/>
+        <c:axId val="21542560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99881772"/>
+        <c:axId val="14680635"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="30"/>
@@ -1607,12 +1496,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72694375"/>
+        <c:crossAx val="21542560"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72694375"/>
+        <c:axId val="21542560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1543,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99881772"/>
+        <c:crossAx val="14680635"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1710,7 +1599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1736,11 +1625,19 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Mode 4</a:t>
+              <a:t>Mode 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.430498824111895"/>
+          <c:y val="0.0369043353636689"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1756,10 +1653,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.066431401684002"/>
-          <c:y val="0.21374865735768"/>
-          <c:w val="0.713781575037147"/>
-          <c:h val="0.688626327724072"/>
+          <c:x val="0.0664067335066221"/>
+          <c:y val="0.213901827302042"/>
+          <c:w val="0.713516524322317"/>
+          <c:h val="0.688403200764362"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1819,50 +1716,35 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$29:$Q$29</c:f>
+              <c:f>Test_Initdis!$D$41:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>184.3</c:v>
+                  <c:v>264.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198.1</c:v>
+                  <c:v>283.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212.9</c:v>
+                  <c:v>305.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228.8</c:v>
+                  <c:v>327.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245.8</c:v>
+                  <c:v>352.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>264.2</c:v>
+                  <c:v>378.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>283.9</c:v>
+                  <c:v>406.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>305.1</c:v>
+                  <c:v>437.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>327.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>352.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>378.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>406.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>437.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>469.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1870,50 +1752,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$27:$Q$27</c:f>
+              <c:f>Test_Initdis!$D$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>88.6839908399312</c:v>
+                  <c:v>33.0445745656922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.2965180641972</c:v>
+                  <c:v>25.9386931701922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.2112296205677</c:v>
+                  <c:v>20.7252269343757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.714619449158</c:v>
+                  <c:v>13.991979383972</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.7530935415718</c:v>
+                  <c:v>10.448096587855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.0445745656922</c:v>
+                  <c:v>7.83667466984971</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.9386931701922</c:v>
+                  <c:v>5.73406371009997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.7252269343757</c:v>
+                  <c:v>4.27247490502101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.991979383972</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.448096587855</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.83667466984971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.73406371009997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.27247490502101</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>3.36762939250147</c:v>
                 </c:pt>
               </c:numCache>
@@ -1926,7 +1793,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test_Initdis!$B$28:$B$28</c:f>
+              <c:f>Test_Initdis!$B$40:$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1978,50 +1845,35 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$29:$Q$29</c:f>
+              <c:f>Test_Initdis!$D$41:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>184.3</c:v>
+                  <c:v>264.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198.1</c:v>
+                  <c:v>283.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212.9</c:v>
+                  <c:v>305.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228.8</c:v>
+                  <c:v>327.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245.8</c:v>
+                  <c:v>352.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>264.2</c:v>
+                  <c:v>378.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>283.9</c:v>
+                  <c:v>406.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>305.1</c:v>
+                  <c:v>437.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>327.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>352.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>378.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>406.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>437.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>469.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2029,62 +1881,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$28:$Q$28</c:f>
+              <c:f>Test_Initdis!$D$40:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>68.24</c:v>
+                  <c:v>26.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.37</c:v>
+                  <c:v>23.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.69</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.3</c:v>
+                  <c:v>17.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.17</c:v>
+                  <c:v>15.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.15</c:v>
+                  <c:v>12.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.2</c:v>
+                  <c:v>10.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.96</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.01</c:v>
+                  <c:v>6.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3451833"/>
-        <c:axId val="1411794"/>
+        <c:axId val="14510403"/>
+        <c:axId val="24114203"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3451833"/>
+        <c:axId val="14510403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,12 +1953,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1411794"/>
+        <c:crossAx val="24114203"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1411794"/>
+        <c:axId val="24114203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2000,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3451833"/>
+        <c:crossAx val="14510403"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2219,7 +2056,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2265,10 +2102,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0664560086896416"/>
-          <c:y val="0.151846522781775"/>
-          <c:w val="0.713834304334946"/>
-          <c:h val="0.68863309352518"/>
+          <c:x val="0.066424807808586"/>
+          <c:y val="0.15186683973429"/>
+          <c:w val="0.713570009501598"/>
+          <c:h val="0.688478277468122"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2279,7 +2116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test_Initdis!$B$97:$B$97</c:f>
+              <c:f>Test_Initdis!$B$127:$B$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2328,7 +2165,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$100:$BE$100</c:f>
+              <c:f>Test_Initdis!$D$130:$BE$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -2499,7 +2336,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$97:$BE$97</c:f>
+              <c:f>Test_Initdis!$D$127:$BE$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -2675,7 +2512,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test_Initdis!$B$98:$B$98</c:f>
+              <c:f>Test_Initdis!$B$128:$B$128</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2727,7 +2564,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$100:$BE$100</c:f>
+              <c:f>Test_Initdis!$D$130:$BE$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -2898,171 +2735,171 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$98:$BE$98</c:f>
+              <c:f>Test_Initdis!$D$128:$BE$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>541.66</c:v>
+                  <c:v>597.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577.63</c:v>
+                  <c:v>795.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>612.8</c:v>
+                  <c:v>802.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>636.21</c:v>
+                  <c:v>784.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>649.01</c:v>
+                  <c:v>913.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>652.26</c:v>
+                  <c:v>838.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>644.36</c:v>
+                  <c:v>819.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>625.98</c:v>
+                  <c:v>819.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>600.21</c:v>
+                  <c:v>710.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>564.01</c:v>
+                  <c:v>347.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>521.17</c:v>
+                  <c:v>386.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>473.86</c:v>
+                  <c:v>422.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>424.26</c:v>
+                  <c:v>454.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>374.38</c:v>
+                  <c:v>507.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>323.5</c:v>
+                  <c:v>528.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>275.9</c:v>
+                  <c:v>568.58</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>230.7</c:v>
+                  <c:v>575.19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>190.79</c:v>
+                  <c:v>620.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>450.92</c:v>
+                  <c:v>608.71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>483.69</c:v>
+                  <c:v>610.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>511.25</c:v>
+                  <c:v>621.99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>532.97</c:v>
+                  <c:v>602.39</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>547.05</c:v>
+                  <c:v>575.34</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>553.17</c:v>
+                  <c:v>570.31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>551.16</c:v>
+                  <c:v>526.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>541.15</c:v>
+                  <c:v>502.86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>523.25</c:v>
+                  <c:v>460.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>498.63</c:v>
+                  <c:v>397.61</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>468.02</c:v>
+                  <c:v>399.99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>432.78</c:v>
+                  <c:v>402.51</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393.84</c:v>
+                  <c:v>391.88</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>353.42</c:v>
+                  <c:v>381.65</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>312.45</c:v>
+                  <c:v>365.87</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>272.31</c:v>
+                  <c:v>349.87</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>233.72</c:v>
+                  <c:v>329.08</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>197.71</c:v>
+                  <c:v>308.07</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>164.66</c:v>
+                  <c:v>286.34</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>134.88</c:v>
+                  <c:v>256.67</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>109.2</c:v>
+                  <c:v>233.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>86.98</c:v>
+                  <c:v>208.45</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68.24</c:v>
+                  <c:v>184.55</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53.37</c:v>
+                  <c:v>160.65</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.69</c:v>
+                  <c:v>138.62</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.3</c:v>
+                  <c:v>117.75</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.17</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.15</c:v>
+                  <c:v>26.1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.2</c:v>
+                  <c:v>23.34</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.17</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.96</c:v>
+                  <c:v>17.92</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.43</c:v>
+                  <c:v>15.36</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.47</c:v>
+                  <c:v>12.98</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.97</c:v>
+                  <c:v>10.85</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.85</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.01</c:v>
+                  <c:v>6.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,7 +2911,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test_Initdis!$B$99:$B$99</c:f>
+              <c:f>Test_Initdis!$B$129:$B$129</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3126,7 +2963,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$100:$BE$100</c:f>
+              <c:f>Test_Initdis!$D$130:$BE$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -3297,182 +3134,182 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$99:$BE$99</c:f>
+              <c:f>Test_Initdis!$D$129:$BE$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>677.075</c:v>
+                  <c:v>478.024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>722.0375</c:v>
+                  <c:v>636.112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>766</c:v>
+                  <c:v>642.008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>795.2625</c:v>
+                  <c:v>627.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>811.2625</c:v>
+                  <c:v>731.168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>815.325</c:v>
+                  <c:v>670.712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>805.45</c:v>
+                  <c:v>655.248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>782.475</c:v>
+                  <c:v>655.248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>750.2625</c:v>
+                  <c:v>568.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>705.0125</c:v>
+                  <c:v>347.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>651.4625</c:v>
+                  <c:v>386.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>592.325</c:v>
+                  <c:v>422.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>530.325</c:v>
+                  <c:v>454.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>467.975</c:v>
+                  <c:v>507.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>404.375</c:v>
+                  <c:v>528.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>344.875</c:v>
+                  <c:v>568.58</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>288.375</c:v>
+                  <c:v>575.19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>238.4875</c:v>
+                  <c:v>620.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>586.196</c:v>
+                  <c:v>608.71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>628.797</c:v>
+                  <c:v>610.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>664.625</c:v>
+                  <c:v>621.99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>692.861</c:v>
+                  <c:v>602.39</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>711.165</c:v>
+                  <c:v>575.34</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>719.121</c:v>
+                  <c:v>570.31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>716.508</c:v>
+                  <c:v>526.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>703.495</c:v>
+                  <c:v>502.86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>680.225</c:v>
+                  <c:v>460.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>648.219</c:v>
+                  <c:v>530.146666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>608.426</c:v>
+                  <c:v>533.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>562.614</c:v>
+                  <c:v>536.68</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>511.992</c:v>
+                  <c:v>522.506666666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>459.446</c:v>
+                  <c:v>508.866666666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>406.185</c:v>
+                  <c:v>487.826666666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>354.003</c:v>
+                  <c:v>466.493333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>303.836</c:v>
+                  <c:v>438.773333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>257.023</c:v>
+                  <c:v>410.76</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>214.058</c:v>
+                  <c:v>381.786666666667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>175.344</c:v>
+                  <c:v>342.226666666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>141.96</c:v>
+                  <c:v>311.173333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>113.074</c:v>
+                  <c:v>277.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>88.712</c:v>
+                  <c:v>246.066666666667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>69.381</c:v>
+                  <c:v>214.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56.797</c:v>
+                  <c:v>184.826666666667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45.89</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.621</c:v>
+                  <c:v>133.68</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28.795</c:v>
+                  <c:v>30.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.36</c:v>
+                  <c:v>26.9307692307692</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.121</c:v>
+                  <c:v>23.6538461538462</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.948</c:v>
+                  <c:v>20.6769230769231</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.659</c:v>
+                  <c:v>17.7230769230769</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.111</c:v>
+                  <c:v>14.9769230769231</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.161</c:v>
+                  <c:v>12.5192307692308</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.705</c:v>
+                  <c:v>10.3846153846154</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.613</c:v>
+                  <c:v>7.85769230769231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73534815"/>
-        <c:axId val="99292878"/>
+        <c:axId val="30302078"/>
+        <c:axId val="72536676"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73534815"/>
+        <c:axId val="30302078"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3509,8 +3346,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.602992001579935"/>
-              <c:y val="0.921151079136691"/>
+              <c:x val="0.602746825602488"/>
+              <c:y val="0.920592502099717"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3547,12 +3384,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99292878"/>
+        <c:crossAx val="72536676"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99292878"/>
+        <c:axId val="72536676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,7 +3431,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73534815"/>
+        <c:crossAx val="30302078"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3650,7 +3487,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3696,10 +3533,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0664145011543941"/>
-          <c:y val="0.151841954571483"/>
-          <c:w val="0.713857641106253"/>
-          <c:h val="0.688585607940447"/>
+          <c:x val="0.0663999652128538"/>
+          <c:y val="0.151940475183901"/>
+          <c:w val="0.71361481932426"/>
+          <c:h val="0.688424790733068"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3710,7 +3547,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test_Initdis!$B$97:$B$97</c:f>
+              <c:f>Test_Initdis!$B$127:$B$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3759,7 +3596,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$100:$BE$100</c:f>
+              <c:f>Test_Initdis!$D$130:$BE$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -3930,7 +3767,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$97:$BE$97</c:f>
+              <c:f>Test_Initdis!$D$127:$BE$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -4106,7 +3943,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test_Initdis!$B$98:$B$98</c:f>
+              <c:f>Test_Initdis!$B$128:$B$128</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4158,7 +3995,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$100:$BE$100</c:f>
+              <c:f>Test_Initdis!$D$130:$BE$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -4329,171 +4166,171 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$98:$BE$98</c:f>
+              <c:f>Test_Initdis!$D$128:$BE$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>541.66</c:v>
+                  <c:v>597.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577.63</c:v>
+                  <c:v>795.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>612.8</c:v>
+                  <c:v>802.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>636.21</c:v>
+                  <c:v>784.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>649.01</c:v>
+                  <c:v>913.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>652.26</c:v>
+                  <c:v>838.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>644.36</c:v>
+                  <c:v>819.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>625.98</c:v>
+                  <c:v>819.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>600.21</c:v>
+                  <c:v>710.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>564.01</c:v>
+                  <c:v>347.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>521.17</c:v>
+                  <c:v>386.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>473.86</c:v>
+                  <c:v>422.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>424.26</c:v>
+                  <c:v>454.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>374.38</c:v>
+                  <c:v>507.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>323.5</c:v>
+                  <c:v>528.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>275.9</c:v>
+                  <c:v>568.58</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>230.7</c:v>
+                  <c:v>575.19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>190.79</c:v>
+                  <c:v>620.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>450.92</c:v>
+                  <c:v>608.71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>483.69</c:v>
+                  <c:v>610.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>511.25</c:v>
+                  <c:v>621.99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>532.97</c:v>
+                  <c:v>602.39</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>547.05</c:v>
+                  <c:v>575.34</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>553.17</c:v>
+                  <c:v>570.31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>551.16</c:v>
+                  <c:v>526.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>541.15</c:v>
+                  <c:v>502.86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>523.25</c:v>
+                  <c:v>460.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>498.63</c:v>
+                  <c:v>397.61</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>468.02</c:v>
+                  <c:v>399.99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>432.78</c:v>
+                  <c:v>402.51</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393.84</c:v>
+                  <c:v>391.88</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>353.42</c:v>
+                  <c:v>381.65</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>312.45</c:v>
+                  <c:v>365.87</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>272.31</c:v>
+                  <c:v>349.87</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>233.72</c:v>
+                  <c:v>329.08</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>197.71</c:v>
+                  <c:v>308.07</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>164.66</c:v>
+                  <c:v>286.34</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>134.88</c:v>
+                  <c:v>256.67</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>109.2</c:v>
+                  <c:v>233.38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>86.98</c:v>
+                  <c:v>208.45</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68.24</c:v>
+                  <c:v>184.55</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53.37</c:v>
+                  <c:v>160.65</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.69</c:v>
+                  <c:v>138.62</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.3</c:v>
+                  <c:v>117.75</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.17</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.15</c:v>
+                  <c:v>26.1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.2</c:v>
+                  <c:v>23.34</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.17</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.96</c:v>
+                  <c:v>17.92</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.43</c:v>
+                  <c:v>15.36</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.47</c:v>
+                  <c:v>12.98</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.97</c:v>
+                  <c:v>10.85</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.85</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.01</c:v>
+                  <c:v>6.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4505,7 +4342,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test_Initdis!$B$99:$B$99</c:f>
+              <c:f>Test_Initdis!$B$129:$B$129</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4557,7 +4394,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$100:$BE$100</c:f>
+              <c:f>Test_Initdis!$D$130:$BE$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -4728,182 +4565,182 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Test_Initdis!$D$99:$BE$99</c:f>
+              <c:f>Test_Initdis!$D$129:$BE$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>677.075</c:v>
+                  <c:v>478.024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>722.0375</c:v>
+                  <c:v>636.112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>766</c:v>
+                  <c:v>642.008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>795.2625</c:v>
+                  <c:v>627.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>811.2625</c:v>
+                  <c:v>731.168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>815.325</c:v>
+                  <c:v>670.712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>805.45</c:v>
+                  <c:v>655.248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>782.475</c:v>
+                  <c:v>655.248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>750.2625</c:v>
+                  <c:v>568.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>705.0125</c:v>
+                  <c:v>347.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>651.4625</c:v>
+                  <c:v>386.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>592.325</c:v>
+                  <c:v>422.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>530.325</c:v>
+                  <c:v>454.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>467.975</c:v>
+                  <c:v>507.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>404.375</c:v>
+                  <c:v>528.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>344.875</c:v>
+                  <c:v>568.58</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>288.375</c:v>
+                  <c:v>575.19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>238.4875</c:v>
+                  <c:v>620.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>586.196</c:v>
+                  <c:v>608.71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>628.797</c:v>
+                  <c:v>610.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>664.625</c:v>
+                  <c:v>621.99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>692.861</c:v>
+                  <c:v>602.39</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>711.165</c:v>
+                  <c:v>575.34</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>719.121</c:v>
+                  <c:v>570.31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>716.508</c:v>
+                  <c:v>526.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>703.495</c:v>
+                  <c:v>502.86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>680.225</c:v>
+                  <c:v>460.56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>648.219</c:v>
+                  <c:v>530.146666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>608.426</c:v>
+                  <c:v>533.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>562.614</c:v>
+                  <c:v>536.68</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>511.992</c:v>
+                  <c:v>522.506666666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>459.446</c:v>
+                  <c:v>508.866666666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>406.185</c:v>
+                  <c:v>487.826666666667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>354.003</c:v>
+                  <c:v>466.493333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>303.836</c:v>
+                  <c:v>438.773333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>257.023</c:v>
+                  <c:v>410.76</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>214.058</c:v>
+                  <c:v>381.786666666667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>175.344</c:v>
+                  <c:v>342.226666666667</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>141.96</c:v>
+                  <c:v>311.173333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>113.074</c:v>
+                  <c:v>277.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>88.712</c:v>
+                  <c:v>246.066666666667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>69.381</c:v>
+                  <c:v>214.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56.797</c:v>
+                  <c:v>184.826666666667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45.89</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.621</c:v>
+                  <c:v>133.68</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28.795</c:v>
+                  <c:v>30.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.36</c:v>
+                  <c:v>26.9307692307692</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.121</c:v>
+                  <c:v>23.6538461538462</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.948</c:v>
+                  <c:v>20.6769230769231</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.659</c:v>
+                  <c:v>17.7230769230769</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.111</c:v>
+                  <c:v>14.9769230769231</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.161</c:v>
+                  <c:v>12.5192307692308</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.705</c:v>
+                  <c:v>10.3846153846154</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.613</c:v>
+                  <c:v>7.85769230769231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61309678"/>
-        <c:axId val="60117870"/>
+        <c:axId val="10811535"/>
+        <c:axId val="54000276"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61309678"/>
+        <c:axId val="10811535"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4940,8 +4777,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.602986687625878"/>
-              <c:y val="0.921168161862951"/>
+              <c:x val="0.602687307040049"/>
+              <c:y val="0.920520842140864"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4978,12 +4815,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60117870"/>
+        <c:crossAx val="54000276"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60117870"/>
+        <c:axId val="54000276"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5060,7 +4897,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61309678"/>
+        <c:crossAx val="10811535"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5116,20 +4953,577 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Mode 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0696122860020141"/>
+          <c:y val="0.213320104179586"/>
+          <c:w val="0.717522658610272"/>
+          <c:h val="0.67853156393402"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Test_Data!$A$1:$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test_Initdis!$D$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test_Initdis!$D$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>792.82374779818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>710.200339376965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>660.782695119878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640.835560877071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>578.910091787022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>542.262350746067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525.438150187442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>539.910461957901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>561.046691807722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>564.35634672652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>592.318412654218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>619.902142675285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>648.953116200058</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>691.681122728953</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>695.561396639587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>676.139892021799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>658.318402728287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>655.589257212674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Test_Initdis!$B$16:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dN(i) Fitaero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c5000b"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test_Initdis!$D$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test_Initdis!$D$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>347.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>386.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>422.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>454.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>507.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>568.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>575.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>620.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>608.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>610.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>621.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>602.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>575.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>570.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>526.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>502.86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>460.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="86668558"/>
+        <c:axId val="65213519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86668558"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65213519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="65213519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86668558"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.808399445913613"/>
+          <c:y val="0.46950917203768"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>663840</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:colOff>661680</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5137,8 +5531,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="8253360"/>
-        <a:ext cx="5717160" cy="2904480"/>
+        <a:off x="0" y="10668960"/>
+        <a:ext cx="5719320" cy="2902320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5151,15 +5545,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:colOff>58320</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:colOff>56160</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5167,8 +5561,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="67320" y="11179080"/>
-        <a:ext cx="5785920" cy="2940480"/>
+        <a:off x="58320" y="16846200"/>
+        <a:ext cx="5788080" cy="2938320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5181,15 +5575,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:colOff>59400</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28440</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:colOff>85680</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5197,8 +5591,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="14414400"/>
-        <a:ext cx="5814360" cy="3016080"/>
+        <a:off x="59400" y="19994040"/>
+        <a:ext cx="5816520" cy="3013920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5212,14 +5606,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19440</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5227,8 +5621,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19440" y="18987480"/>
-        <a:ext cx="7291080" cy="3752640"/>
+        <a:off x="19440" y="24714720"/>
+        <a:ext cx="8335080" cy="4714560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5241,15 +5635,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:colOff>138600</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76680</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428400</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5257,12 +5651,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="22853880"/>
-        <a:ext cx="7328160" cy="3771720"/>
+        <a:off x="138600" y="29659680"/>
+        <a:ext cx="8278560" cy="4257360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10440</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>672120</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4_0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10440" y="13832640"/>
+        <a:ext cx="5719320" cy="2902320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5278,11 +5702,11 @@
   </sheetPr>
   <dimension ref="B1:BE24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.6"/>
@@ -6034,7 +6458,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
   </cols>
@@ -6182,19 +6606,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BE100"/>
+  <dimension ref="A1:BE131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="17" style="0" width="9.32"/>
   </cols>
   <sheetData>
@@ -6238,33 +6662,6 @@
       <c r="L3" s="3" t="n">
         <v>796.247155746377</v>
       </c>
-      <c r="M3" s="3" t="n">
-        <v>792.82374779818</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>710.200339376965</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>660.782695119878</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>640.835560877071</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>578.910091787022</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>542.262350746067</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>525.438150187442</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>539.910461957901</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>561.046691807722</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
@@ -6273,59 +6670,41 @@
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>541.66</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>577.63</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>612.8</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>636.21</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>649.01</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>652.26</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>644.36</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>625.98</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>600.21</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>564.01</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>521.17</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>473.86</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>424.26</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>374.38</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>323.5</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>275.9</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>190.79</v>
+      <c r="D4" s="9" t="n">
+        <f aca="false">FILLDN!D2</f>
+        <v>597.53</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <f aca="false">FILLDN!D3</f>
+        <v>795.14</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <f aca="false">FILLDN!D4</f>
+        <v>802.51</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <f aca="false">FILLDN!D5</f>
+        <v>784.6</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <f aca="false">FILLDN!D6</f>
+        <v>913.96</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <f aca="false">FILLDN!D7</f>
+        <v>838.39</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <f aca="false">FILLDN!D8</f>
+        <v>819.06</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <f aca="false">FILLDN!D8</f>
+        <v>819.06</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <f aca="false">FILLDN!D9</f>
+        <v>710.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6341,7 +6720,7 @@
       <c r="E5" s="0" t="n">
         <v>11.1</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="10" t="n">
         <v>12</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -6353,7 +6732,7 @@
       <c r="I5" s="0" t="n">
         <v>14.9</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="10" t="n">
         <v>16</v>
       </c>
       <c r="K5" s="0" t="n">
@@ -6361,33 +6740,6 @@
       </c>
       <c r="L5" s="0" t="n">
         <v>18.4</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>35.2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6398,7 +6750,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>52</v>
@@ -6409,78 +6761,100 @@
         <v>53</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>54</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="11" t="n">
-        <v>39.74</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>17.3</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>37.447</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>17.296</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="14" t="n">
-        <v>1.9</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>1.6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>1.75</v>
+        <v>59</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="11" t="n">
-        <v>95.82</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>23.5</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>126.046</v>
-      </c>
-      <c r="H11" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>23.539</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <f aca="false">G11</f>
+        <v>23.539</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="12"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="18"/>
+    </row>
     <row r="14" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
@@ -6490,70 +6864,58 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="n">
+        <v>792.82374779818</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>710.200339376965</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>660.782695119878</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>640.835560877071</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>578.910091787022</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>542.262350746067</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>525.438150187442</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>539.910461957901</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>561.046691807722</v>
+      </c>
+      <c r="M15" s="3" t="n">
         <v>564.35634672652</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="N15" s="3" t="n">
         <v>592.318412654218</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="O15" s="3" t="n">
         <v>619.902142675285</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="P15" s="3" t="n">
         <v>648.953116200058</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="Q15" s="3" t="n">
         <v>691.681122728953</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="R15" s="3" t="n">
         <v>695.561396639587</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="S15" s="3" t="n">
         <v>676.139892021799</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="T15" s="3" t="n">
         <v>658.318402728287</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="U15" s="3" t="n">
         <v>655.589257212674</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>641.058893787085</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>624.781872068927</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>579.412152859297</v>
-      </c>
-      <c r="P15" s="3" t="n">
-        <v>526.442922432224</v>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <v>455.491548145149</v>
-      </c>
-      <c r="R15" s="3" t="n">
-        <v>384.571955470685</v>
-      </c>
-      <c r="S15" s="3" t="n">
-        <v>325.824979460309</v>
-      </c>
-      <c r="T15" s="3" t="n">
-        <v>279.867488619622</v>
-      </c>
-      <c r="U15" s="3" t="n">
-        <v>232.348668866477</v>
-      </c>
-      <c r="V15" s="3" t="n">
-        <v>188.745198190073</v>
-      </c>
-      <c r="W15" s="3" t="n">
-        <v>158.390614233429</v>
-      </c>
-      <c r="X15" s="3" t="n">
-        <v>131.290538897508</v>
-      </c>
-      <c r="Y15" s="3" t="n">
-        <v>110.232084054637</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6563,71 +6925,77 @@
       <c r="C16" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>450.92</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>483.69</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>511.25</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>532.97</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>547.05</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>553.17</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>551.16</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>541.15</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>523.25</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>498.63</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>468.02</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>432.78</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>393.84</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>353.42</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>312.45</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>272.31</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>233.72</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>197.71</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>164.66</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>134.88</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>109.2</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>86.98</v>
+      <c r="D16" s="9" t="n">
+        <f aca="false">FILLDN!D11</f>
+        <v>347.56</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <f aca="false">FILLDN!D12</f>
+        <v>386.2</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <f aca="false">FILLDN!D13</f>
+        <v>422.21</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <f aca="false">FILLDN!D14</f>
+        <v>454.45</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <f aca="false">FILLDN!D15</f>
+        <v>507.34</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <f aca="false">FILLDN!D16</f>
+        <v>528.94</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <f aca="false">FILLDN!D17</f>
+        <v>568.58</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <f aca="false">FILLDN!D18</f>
+        <v>575.19</v>
+      </c>
+      <c r="L16" s="9" t="n">
+        <f aca="false">FILLDN!D19</f>
+        <v>620.67</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <f aca="false">FILLDN!D20</f>
+        <v>608.71</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <f aca="false">FILLDN!D21</f>
+        <v>610.75</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <f aca="false">FILLDN!D22</f>
+        <v>621.99</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <f aca="false">FILLDN!D23</f>
+        <v>602.39</v>
+      </c>
+      <c r="Q16" s="9" t="n">
+        <f aca="false">FILLDN!D24</f>
+        <v>575.34</v>
+      </c>
+      <c r="R16" s="9" t="n">
+        <f aca="false">FILLDN!D25</f>
+        <v>570.31</v>
+      </c>
+      <c r="S16" s="9" t="n">
+        <f aca="false">FILLDN!D26</f>
+        <v>526.85</v>
+      </c>
+      <c r="T16" s="9" t="n">
+        <f aca="false">FILLDN!D27</f>
+        <v>502.86</v>
+      </c>
+      <c r="U16" s="9" t="n">
+        <f aca="false">FILLDN!D28</f>
+        <v>460.56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6638,160 +7006,167 @@
         <v>5</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="M17" s="0" t="n">
         <v>37.9</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>40.7</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>43.7</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="P17" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>50.5</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>54.2</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>58.3</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>62.6</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>67.3</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>111.4</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>119.7</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>171.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="2"/>
+      <c r="C18" s="12"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>1600</v>
+      <c r="C19" s="7" t="n">
+        <v>1400</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>54</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>117.07</v>
+        <v>56</v>
+      </c>
+      <c r="C21" s="12" t="n">
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>156.318</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>19.998</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>94</v>
+      </c>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="14" t="n">
-        <v>1.55</v>
+        <v>58</v>
+      </c>
+      <c r="C22" s="16" t="n">
+        <v>1.8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="15" t="n">
-        <v>1.802</v>
+        <v>59</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H22" s="17" t="n">
+        <v>1.903</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="11" t="n">
-        <v>5917</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>2192.5</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>7019.771</v>
-      </c>
-      <c r="H23" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>1754.003</v>
+      </c>
+      <c r="H23" s="13" t="n">
+        <f aca="false">G23</f>
+        <v>1754.003</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6802,46 +7177,58 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="n">
+        <v>641.058893787085</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>624.781872068927</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>579.412152859297</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>526.442922432224</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>455.491548145149</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>384.571955470685</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>325.824979460309</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>279.867488619622</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>232.348668866477</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>188.745198190073</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>158.390614233429</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>131.290538897508</v>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>110.232084054637</v>
+      </c>
+      <c r="Q27" s="3" t="n">
         <v>88.6839908399312</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="R27" s="3" t="n">
         <v>76.2965180641972</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="S27" s="3" t="n">
         <v>63.2112296205677</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="T27" s="3" t="n">
         <v>52.714619449158</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="U27" s="3" t="n">
         <v>42.7530935415718</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>33.0445745656922</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>25.9386931701922</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>20.7252269343757</v>
-      </c>
-      <c r="L27" s="3" t="n">
-        <v>13.991979383972</v>
-      </c>
-      <c r="M27" s="3" t="n">
-        <v>10.448096587855</v>
-      </c>
-      <c r="N27" s="3" t="n">
-        <v>7.83667466984971</v>
-      </c>
-      <c r="O27" s="3" t="n">
-        <v>5.73406371009997</v>
-      </c>
-      <c r="P27" s="3" t="n">
-        <v>4.27247490502101</v>
-      </c>
-      <c r="Q27" s="3" t="n">
-        <v>3.36762939250147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6851,47 +7238,77 @@
       <c r="C28" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>68.24</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>53.37</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>28.17</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>9.96</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>2.01</v>
+      <c r="D28" s="9" t="n">
+        <f aca="false">FILLDN!D29</f>
+        <v>397.61</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <f aca="false">FILLDN!D30</f>
+        <v>399.99</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <f aca="false">FILLDN!D31</f>
+        <v>402.51</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <f aca="false">FILLDN!D32</f>
+        <v>391.88</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <f aca="false">FILLDN!D33</f>
+        <v>381.65</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <f aca="false">FILLDN!D34</f>
+        <v>365.87</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <f aca="false">FILLDN!D35</f>
+        <v>349.87</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <f aca="false">FILLDN!D36</f>
+        <v>329.08</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <f aca="false">FILLDN!D37</f>
+        <v>308.07</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <f aca="false">FILLDN!D38</f>
+        <v>286.34</v>
+      </c>
+      <c r="N28" s="9" t="n">
+        <f aca="false">FILLDN!D39</f>
+        <v>256.67</v>
+      </c>
+      <c r="O28" s="9" t="n">
+        <f aca="false">FILLDN!D40</f>
+        <v>233.38</v>
+      </c>
+      <c r="P28" s="9" t="n">
+        <f aca="false">FILLDN!D41</f>
+        <v>208.45</v>
+      </c>
+      <c r="Q28" s="9" t="n">
+        <f aca="false">FILLDN!D42</f>
+        <v>184.55</v>
+      </c>
+      <c r="R28" s="9" t="n">
+        <f aca="false">FILLDN!D43</f>
+        <v>160.65</v>
+      </c>
+      <c r="S28" s="9" t="n">
+        <f aca="false">FILLDN!D44</f>
+        <v>138.62</v>
+      </c>
+      <c r="T28" s="9" t="n">
+        <f aca="false">FILLDN!D45</f>
+        <v>117.75</v>
+      </c>
+      <c r="U28" s="9" t="n">
+        <f aca="false">FILLDN!D46</f>
+        <v>100.26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6902,61 +7319,69 @@
         <v>5</v>
       </c>
       <c r="D29" s="0" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="Q29" s="0" t="n">
         <v>184.3</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>198.1</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>212.9</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>228.8</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>245.8</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>264.2</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>283.9</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>305.1</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>327.8</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>352.3</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>378.6</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>406.8</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>437.1</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>469.8</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>52</v>
@@ -6967,1096 +7392,1341 @@
         <v>53</v>
       </c>
       <c r="C32" s="6" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="11" t="s">
         <v>54</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="6" t="n">
-        <v>270</v>
+        <v>56</v>
+      </c>
+      <c r="C33" s="12" t="n">
+        <v>94</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="12" t="n">
-        <v>223.923</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G33" s="13" t="n">
+        <v>319.54</v>
+      </c>
+      <c r="H33" s="19" t="n">
+        <v>201</v>
+      </c>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="14" t="n">
+        <v>58</v>
+      </c>
+      <c r="C34" s="16" t="n">
         <v>1.55</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="15" t="n">
-        <v>1.866</v>
+        <v>59</v>
+      </c>
+      <c r="G34" s="17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H34" s="17" t="n">
+        <v>1.988</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <v>7876.34</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>21740</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="20" t="n">
+        <v>10652.56</v>
+      </c>
+      <c r="H35" s="20" t="n">
+        <f aca="false">G35</f>
+        <v>10652.56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>33.0445745656922</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>25.9386931701922</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>20.7252269343757</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>13.991979383972</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>10.448096587855</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>7.83667466984971</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>5.73406371009997</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>4.27247490502101</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>3.36762939250147</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <f aca="false">FILLDN!D47</f>
+        <v>26.1</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <f aca="false">FILLDN!D48</f>
+        <v>23.34</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <f aca="false">FILLDN!D49</f>
+        <v>20.5</v>
+      </c>
+      <c r="G40" s="9" t="n">
+        <f aca="false">FILLDN!D50</f>
+        <v>17.92</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <f aca="false">FILLDN!D51</f>
+        <v>15.36</v>
+      </c>
+      <c r="I40" s="9" t="n">
+        <f aca="false">FILLDN!D52</f>
+        <v>12.98</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <f aca="false">FILLDN!D53</f>
+        <v>10.85</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <f aca="false">FILLDN!D54</f>
+        <v>9</v>
+      </c>
+      <c r="L40" s="9" t="n">
+        <f aca="false">FILLDN!D55</f>
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>283.9</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>305.1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>327.8</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>352.3</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>378.6</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>406.8</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>437.1</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>469.8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>340</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="13" t="n">
+        <v>324</v>
+      </c>
+      <c r="H45" s="19" t="n">
+        <v>324</v>
+      </c>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="12" t="n">
-        <v>7689.957</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+      <c r="C47" s="12" t="n">
+        <v>9927.8</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="13" t="n">
+        <v>4467.495</v>
+      </c>
+      <c r="H47" s="13" t="n">
+        <f aca="false">G47</f>
+        <v>4467.495</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="0" t="s">
+      <c r="B50" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="C50" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="0" t="s">
+      <c r="B51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="0" t="s">
+      <c r="I51" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I40" s="0" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M66" s="17"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M68" s="17"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="I52" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M78" s="21"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M80" s="21"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+    </row>
+    <row r="126" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D126" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E126" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F126" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="G126" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H126" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I96" s="0" t="n">
+      <c r="I126" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J96" s="0" t="n">
+      <c r="J126" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K96" s="0" t="n">
+      <c r="K126" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L96" s="0" t="n">
+      <c r="L126" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M96" s="0" t="n">
+      <c r="M126" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N96" s="0" t="n">
+      <c r="N126" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="O96" s="0" t="n">
+      <c r="O126" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="P96" s="0" t="n">
+      <c r="P126" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="Q96" s="0" t="n">
+      <c r="Q126" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="R96" s="0" t="n">
+      <c r="R126" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="S96" s="0" t="n">
+      <c r="S126" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="T96" s="0" t="n">
+      <c r="T126" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="U96" s="0" t="n">
+      <c r="U126" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="V96" s="0" t="n">
+      <c r="V126" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="W96" s="0" t="n">
+      <c r="W126" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X96" s="0" t="n">
+      <c r="X126" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="Y96" s="0" t="n">
+      <c r="Y126" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="Z96" s="0" t="n">
+      <c r="Z126" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="AA96" s="0" t="n">
+      <c r="AA126" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="AB96" s="0" t="n">
+      <c r="AB126" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="AC96" s="0" t="n">
+      <c r="AC126" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="AD96" s="0" t="n">
+      <c r="AD126" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="AE96" s="0" t="n">
+      <c r="AE126" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AF96" s="0" t="n">
+      <c r="AF126" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="AG96" s="0" t="n">
+      <c r="AG126" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AH96" s="0" t="n">
+      <c r="AH126" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="AI96" s="0" t="n">
+      <c r="AI126" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AJ96" s="0" t="n">
+      <c r="AJ126" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="AK96" s="0" t="n">
+      <c r="AK126" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="AL96" s="0" t="n">
+      <c r="AL126" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="AM96" s="0" t="n">
+      <c r="AM126" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="AN96" s="0" t="n">
+      <c r="AN126" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="AO96" s="0" t="n">
+      <c r="AO126" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="AP96" s="0" t="n">
+      <c r="AP126" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="AQ96" s="0" t="n">
+      <c r="AQ126" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="AR96" s="0" t="n">
+      <c r="AR126" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="AS96" s="0" t="n">
+      <c r="AS126" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="AT96" s="0" t="n">
+      <c r="AT126" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="AU96" s="0" t="n">
+      <c r="AU126" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="AV96" s="0" t="n">
+      <c r="AV126" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="AW96" s="0" t="n">
+      <c r="AW126" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="AX96" s="0" t="n">
+      <c r="AX126" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="AY96" s="0" t="n">
+      <c r="AY126" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="AZ96" s="0" t="n">
+      <c r="AZ126" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="BA96" s="0" t="n">
+      <c r="BA126" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="BB96" s="0" t="n">
+      <c r="BB126" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="BC96" s="0" t="n">
+      <c r="BC126" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="BD96" s="0" t="n">
+      <c r="BD126" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="BE96" s="0" t="n">
+      <c r="BE126" s="0" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
+    <row r="127" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C127" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="3" t="n">
+      <c r="D127" s="3" t="n">
         <v>525.693494042009</v>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E127" s="3" t="n">
         <v>652.932869380076</v>
       </c>
-      <c r="F97" s="3" t="n">
+      <c r="F127" s="3" t="n">
         <v>715.618226939296</v>
       </c>
-      <c r="G97" s="3" t="n">
+      <c r="G127" s="3" t="n">
         <v>708.790836222811</v>
       </c>
-      <c r="H97" s="3" t="n">
+      <c r="H127" s="3" t="n">
         <v>664.905286507232</v>
       </c>
-      <c r="I97" s="3" t="n">
+      <c r="I127" s="3" t="n">
         <v>635.182739428508</v>
       </c>
-      <c r="J97" s="3" t="n">
+      <c r="J127" s="3" t="n">
         <v>607.862157841551</v>
       </c>
-      <c r="K97" s="3" t="n">
+      <c r="K127" s="3" t="n">
         <v>626.611988345819</v>
       </c>
-      <c r="L97" s="3" t="n">
+      <c r="L127" s="3" t="n">
         <v>796.247155746377</v>
       </c>
-      <c r="M97" s="3" t="n">
+      <c r="M127" s="3" t="n">
         <v>792.82374779818</v>
       </c>
-      <c r="N97" s="3" t="n">
+      <c r="N127" s="3" t="n">
         <v>710.200339376965</v>
       </c>
-      <c r="O97" s="3" t="n">
+      <c r="O127" s="3" t="n">
         <v>660.782695119878</v>
       </c>
-      <c r="P97" s="3" t="n">
+      <c r="P127" s="3" t="n">
         <v>640.835560877071</v>
       </c>
-      <c r="Q97" s="3" t="n">
+      <c r="Q127" s="3" t="n">
         <v>578.910091787022</v>
       </c>
-      <c r="R97" s="3" t="n">
+      <c r="R127" s="3" t="n">
         <v>542.262350746067</v>
       </c>
-      <c r="S97" s="3" t="n">
+      <c r="S127" s="3" t="n">
         <v>525.438150187442</v>
       </c>
-      <c r="T97" s="3" t="n">
+      <c r="T127" s="3" t="n">
         <v>539.910461957901</v>
       </c>
-      <c r="U97" s="3" t="n">
+      <c r="U127" s="3" t="n">
         <v>561.046691807722</v>
       </c>
-      <c r="V97" s="3" t="n">
+      <c r="V127" s="3" t="n">
         <v>564.35634672652</v>
       </c>
-      <c r="W97" s="3" t="n">
+      <c r="W127" s="3" t="n">
         <v>592.318412654218</v>
       </c>
-      <c r="X97" s="3" t="n">
+      <c r="X127" s="3" t="n">
         <v>619.902142675285</v>
       </c>
-      <c r="Y97" s="3" t="n">
+      <c r="Y127" s="3" t="n">
         <v>648.953116200058</v>
       </c>
-      <c r="Z97" s="3" t="n">
+      <c r="Z127" s="3" t="n">
         <v>691.681122728953</v>
       </c>
-      <c r="AA97" s="3" t="n">
+      <c r="AA127" s="3" t="n">
         <v>695.561396639587</v>
       </c>
-      <c r="AB97" s="3" t="n">
+      <c r="AB127" s="3" t="n">
         <v>676.139892021799</v>
       </c>
-      <c r="AC97" s="3" t="n">
+      <c r="AC127" s="3" t="n">
         <v>658.318402728287</v>
       </c>
-      <c r="AD97" s="3" t="n">
+      <c r="AD127" s="3" t="n">
         <v>655.589257212674</v>
       </c>
-      <c r="AE97" s="3" t="n">
+      <c r="AE127" s="3" t="n">
         <v>641.058893787085</v>
       </c>
-      <c r="AF97" s="3" t="n">
+      <c r="AF127" s="3" t="n">
         <v>624.781872068927</v>
       </c>
-      <c r="AG97" s="3" t="n">
+      <c r="AG127" s="3" t="n">
         <v>579.412152859297</v>
       </c>
-      <c r="AH97" s="3" t="n">
+      <c r="AH127" s="3" t="n">
         <v>526.442922432224</v>
       </c>
-      <c r="AI97" s="3" t="n">
+      <c r="AI127" s="3" t="n">
         <v>455.491548145149</v>
       </c>
-      <c r="AJ97" s="3" t="n">
+      <c r="AJ127" s="3" t="n">
         <v>384.571955470685</v>
       </c>
-      <c r="AK97" s="3" t="n">
+      <c r="AK127" s="3" t="n">
         <v>325.824979460309</v>
       </c>
-      <c r="AL97" s="3" t="n">
+      <c r="AL127" s="3" t="n">
         <v>279.867488619622</v>
       </c>
-      <c r="AM97" s="3" t="n">
+      <c r="AM127" s="3" t="n">
         <v>232.348668866477</v>
       </c>
-      <c r="AN97" s="3" t="n">
+      <c r="AN127" s="3" t="n">
         <v>188.745198190073</v>
       </c>
-      <c r="AO97" s="3" t="n">
+      <c r="AO127" s="3" t="n">
         <v>158.390614233429</v>
       </c>
-      <c r="AP97" s="3" t="n">
+      <c r="AP127" s="3" t="n">
         <v>131.290538897508</v>
       </c>
-      <c r="AQ97" s="3" t="n">
+      <c r="AQ127" s="3" t="n">
         <v>110.232084054637</v>
       </c>
-      <c r="AR97" s="3" t="n">
+      <c r="AR127" s="3" t="n">
         <v>88.6839908399312</v>
       </c>
-      <c r="AS97" s="3" t="n">
+      <c r="AS127" s="3" t="n">
         <v>76.2965180641972</v>
       </c>
-      <c r="AT97" s="3" t="n">
+      <c r="AT127" s="3" t="n">
         <v>63.2112296205677</v>
       </c>
-      <c r="AU97" s="3" t="n">
+      <c r="AU127" s="3" t="n">
         <v>52.714619449158</v>
       </c>
-      <c r="AV97" s="3" t="n">
+      <c r="AV127" s="3" t="n">
         <v>42.7530935415718</v>
       </c>
-      <c r="AW97" s="3" t="n">
+      <c r="AW127" s="22" t="n">
         <v>33.0445745656922</v>
       </c>
-      <c r="AX97" s="3" t="n">
+      <c r="AX127" s="3" t="n">
         <v>25.9386931701922</v>
       </c>
-      <c r="AY97" s="3" t="n">
+      <c r="AY127" s="3" t="n">
         <v>20.7252269343757</v>
       </c>
-      <c r="AZ97" s="3" t="n">
+      <c r="AZ127" s="3" t="n">
         <v>13.991979383972</v>
       </c>
-      <c r="BA97" s="3" t="n">
+      <c r="BA127" s="3" t="n">
         <v>10.448096587855</v>
       </c>
-      <c r="BB97" s="3" t="n">
+      <c r="BB127" s="3" t="n">
         <v>7.83667466984971</v>
       </c>
-      <c r="BC97" s="3" t="n">
+      <c r="BC127" s="3" t="n">
         <v>5.73406371009997</v>
       </c>
-      <c r="BD97" s="3" t="n">
+      <c r="BD127" s="3" t="n">
         <v>4.27247490502101</v>
       </c>
-      <c r="BE97" s="3" t="n">
+      <c r="BE127" s="3" t="n">
         <v>3.36762939250147</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
+    <row r="128" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C128" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D128" s="6" t="n">
         <f aca="false">D4</f>
-        <v>541.66</v>
-      </c>
-      <c r="E98" s="0" t="n">
+        <v>597.53</v>
+      </c>
+      <c r="E128" s="6" t="n">
         <f aca="false">E4</f>
-        <v>577.63</v>
-      </c>
-      <c r="F98" s="0" t="n">
+        <v>795.14</v>
+      </c>
+      <c r="F128" s="6" t="n">
         <f aca="false">F4</f>
-        <v>612.8</v>
-      </c>
-      <c r="G98" s="0" t="n">
+        <v>802.51</v>
+      </c>
+      <c r="G128" s="6" t="n">
         <f aca="false">G4</f>
-        <v>636.21</v>
-      </c>
-      <c r="H98" s="0" t="n">
+        <v>784.6</v>
+      </c>
+      <c r="H128" s="6" t="n">
         <f aca="false">H4</f>
-        <v>649.01</v>
-      </c>
-      <c r="I98" s="0" t="n">
+        <v>913.96</v>
+      </c>
+      <c r="I128" s="6" t="n">
         <f aca="false">I4</f>
-        <v>652.26</v>
-      </c>
-      <c r="J98" s="0" t="n">
+        <v>838.39</v>
+      </c>
+      <c r="J128" s="6" t="n">
         <f aca="false">J4</f>
-        <v>644.36</v>
-      </c>
-      <c r="K98" s="0" t="n">
+        <v>819.06</v>
+      </c>
+      <c r="K128" s="6" t="n">
         <f aca="false">K4</f>
-        <v>625.98</v>
-      </c>
-      <c r="L98" s="0" t="n">
+        <v>819.06</v>
+      </c>
+      <c r="L128" s="6" t="n">
         <f aca="false">L4</f>
-        <v>600.21</v>
-      </c>
-      <c r="M98" s="0" t="n">
-        <f aca="false">M4</f>
-        <v>564.01</v>
-      </c>
-      <c r="N98" s="0" t="n">
-        <f aca="false">N4</f>
-        <v>521.17</v>
-      </c>
-      <c r="O98" s="0" t="n">
-        <f aca="false">O4</f>
-        <v>473.86</v>
-      </c>
-      <c r="P98" s="0" t="n">
-        <f aca="false">P4</f>
-        <v>424.26</v>
-      </c>
-      <c r="Q98" s="0" t="n">
-        <f aca="false">Q4</f>
-        <v>374.38</v>
-      </c>
-      <c r="R98" s="0" t="n">
-        <f aca="false">R4</f>
-        <v>323.5</v>
-      </c>
-      <c r="S98" s="0" t="n">
-        <f aca="false">S4</f>
-        <v>275.9</v>
-      </c>
-      <c r="T98" s="0" t="n">
-        <f aca="false">T4</f>
-        <v>230.7</v>
-      </c>
-      <c r="U98" s="0" t="n">
-        <f aca="false">U4</f>
-        <v>190.79</v>
-      </c>
-      <c r="V98" s="0" t="n">
+        <v>710.8</v>
+      </c>
+      <c r="M128" s="6" t="n">
         <f aca="false">D16</f>
-        <v>450.92</v>
-      </c>
-      <c r="W98" s="0" t="n">
+        <v>347.56</v>
+      </c>
+      <c r="N128" s="6" t="n">
         <f aca="false">E16</f>
-        <v>483.69</v>
-      </c>
-      <c r="X98" s="0" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="O128" s="6" t="n">
         <f aca="false">F16</f>
-        <v>511.25</v>
-      </c>
-      <c r="Y98" s="0" t="n">
+        <v>422.21</v>
+      </c>
+      <c r="P128" s="6" t="n">
         <f aca="false">G16</f>
-        <v>532.97</v>
-      </c>
-      <c r="Z98" s="0" t="n">
+        <v>454.45</v>
+      </c>
+      <c r="Q128" s="6" t="n">
         <f aca="false">H16</f>
-        <v>547.05</v>
-      </c>
-      <c r="AA98" s="0" t="n">
+        <v>507.34</v>
+      </c>
+      <c r="R128" s="6" t="n">
         <f aca="false">I16</f>
-        <v>553.17</v>
-      </c>
-      <c r="AB98" s="0" t="n">
+        <v>528.94</v>
+      </c>
+      <c r="S128" s="6" t="n">
         <f aca="false">J16</f>
-        <v>551.16</v>
-      </c>
-      <c r="AC98" s="0" t="n">
+        <v>568.58</v>
+      </c>
+      <c r="T128" s="6" t="n">
         <f aca="false">K16</f>
-        <v>541.15</v>
-      </c>
-      <c r="AD98" s="0" t="n">
+        <v>575.19</v>
+      </c>
+      <c r="U128" s="6" t="n">
         <f aca="false">L16</f>
-        <v>523.25</v>
-      </c>
-      <c r="AE98" s="0" t="n">
+        <v>620.67</v>
+      </c>
+      <c r="V128" s="6" t="n">
         <f aca="false">M16</f>
-        <v>498.63</v>
-      </c>
-      <c r="AF98" s="0" t="n">
+        <v>608.71</v>
+      </c>
+      <c r="W128" s="6" t="n">
         <f aca="false">N16</f>
-        <v>468.02</v>
-      </c>
-      <c r="AG98" s="0" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="X128" s="6" t="n">
         <f aca="false">O16</f>
-        <v>432.78</v>
-      </c>
-      <c r="AH98" s="0" t="n">
+        <v>621.99</v>
+      </c>
+      <c r="Y128" s="6" t="n">
         <f aca="false">P16</f>
-        <v>393.84</v>
-      </c>
-      <c r="AI98" s="0" t="n">
+        <v>602.39</v>
+      </c>
+      <c r="Z128" s="6" t="n">
         <f aca="false">Q16</f>
-        <v>353.42</v>
-      </c>
-      <c r="AJ98" s="0" t="n">
+        <v>575.34</v>
+      </c>
+      <c r="AA128" s="6" t="n">
         <f aca="false">R16</f>
-        <v>312.45</v>
-      </c>
-      <c r="AK98" s="0" t="n">
+        <v>570.31</v>
+      </c>
+      <c r="AB128" s="6" t="n">
         <f aca="false">S16</f>
-        <v>272.31</v>
-      </c>
-      <c r="AL98" s="0" t="n">
+        <v>526.85</v>
+      </c>
+      <c r="AC128" s="6" t="n">
         <f aca="false">T16</f>
-        <v>233.72</v>
-      </c>
-      <c r="AM98" s="0" t="n">
+        <v>502.86</v>
+      </c>
+      <c r="AD128" s="6" t="n">
         <f aca="false">U16</f>
-        <v>197.71</v>
-      </c>
-      <c r="AN98" s="0" t="n">
-        <f aca="false">V16</f>
-        <v>164.66</v>
-      </c>
-      <c r="AO98" s="0" t="n">
-        <f aca="false">W16</f>
-        <v>134.88</v>
-      </c>
-      <c r="AP98" s="0" t="n">
-        <f aca="false">X16</f>
-        <v>109.2</v>
-      </c>
-      <c r="AQ98" s="0" t="n">
-        <f aca="false">Y16</f>
-        <v>86.98</v>
-      </c>
-      <c r="AR98" s="0" t="n">
+        <v>460.56</v>
+      </c>
+      <c r="AE128" s="6" t="n">
         <f aca="false">D28</f>
-        <v>68.24</v>
-      </c>
-      <c r="AS98" s="0" t="n">
+        <v>397.61</v>
+      </c>
+      <c r="AF128" s="6" t="n">
         <f aca="false">E28</f>
-        <v>53.37</v>
-      </c>
-      <c r="AT98" s="0" t="n">
+        <v>399.99</v>
+      </c>
+      <c r="AG128" s="6" t="n">
         <f aca="false">F28</f>
-        <v>43.69</v>
-      </c>
-      <c r="AU98" s="0" t="n">
+        <v>402.51</v>
+      </c>
+      <c r="AH128" s="6" t="n">
         <f aca="false">G28</f>
-        <v>35.3</v>
-      </c>
-      <c r="AV98" s="0" t="n">
+        <v>391.88</v>
+      </c>
+      <c r="AI128" s="6" t="n">
         <f aca="false">H28</f>
-        <v>28.17</v>
-      </c>
-      <c r="AW98" s="0" t="n">
+        <v>381.65</v>
+      </c>
+      <c r="AJ128" s="6" t="n">
         <f aca="false">I28</f>
-        <v>22.15</v>
-      </c>
-      <c r="AX98" s="0" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="AK128" s="6" t="n">
         <f aca="false">J28</f>
+        <v>349.87</v>
+      </c>
+      <c r="AL128" s="6" t="n">
+        <f aca="false">K28</f>
+        <v>329.08</v>
+      </c>
+      <c r="AM128" s="6" t="n">
+        <f aca="false">L28</f>
+        <v>308.07</v>
+      </c>
+      <c r="AN128" s="6" t="n">
+        <f aca="false">M28</f>
+        <v>286.34</v>
+      </c>
+      <c r="AO128" s="6" t="n">
+        <f aca="false">N28</f>
+        <v>256.67</v>
+      </c>
+      <c r="AP128" s="6" t="n">
+        <f aca="false">O28</f>
+        <v>233.38</v>
+      </c>
+      <c r="AQ128" s="6" t="n">
+        <f aca="false">P28</f>
+        <v>208.45</v>
+      </c>
+      <c r="AR128" s="6" t="n">
+        <f aca="false">Q28</f>
+        <v>184.55</v>
+      </c>
+      <c r="AS128" s="6" t="n">
+        <f aca="false">R28</f>
+        <v>160.65</v>
+      </c>
+      <c r="AT128" s="6" t="n">
+        <f aca="false">S28</f>
+        <v>138.62</v>
+      </c>
+      <c r="AU128" s="6" t="n">
+        <f aca="false">T28</f>
+        <v>117.75</v>
+      </c>
+      <c r="AV128" s="6" t="n">
+        <f aca="false">U28</f>
+        <v>100.26</v>
+      </c>
+      <c r="AW128" s="1" t="n">
+        <f aca="false">D40</f>
+        <v>26.1</v>
+      </c>
+      <c r="AX128" s="6" t="n">
+        <f aca="false">E40</f>
+        <v>23.34</v>
+      </c>
+      <c r="AY128" s="6" t="n">
+        <f aca="false">F40</f>
+        <v>20.5</v>
+      </c>
+      <c r="AZ128" s="6" t="n">
+        <f aca="false">G40</f>
+        <v>17.92</v>
+      </c>
+      <c r="BA128" s="6" t="n">
+        <f aca="false">H40</f>
+        <v>15.36</v>
+      </c>
+      <c r="BB128" s="6" t="n">
+        <f aca="false">I40</f>
+        <v>12.98</v>
+      </c>
+      <c r="BC128" s="6" t="n">
+        <f aca="false">J40</f>
+        <v>10.85</v>
+      </c>
+      <c r="BD128" s="6" t="n">
+        <f aca="false">K40</f>
+        <v>9</v>
+      </c>
+      <c r="BE128" s="6" t="n">
+        <f aca="false">L40</f>
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="12" t="n">
+        <f aca="false">D128*($C$7/$C$8)</f>
+        <v>478.024</v>
+      </c>
+      <c r="E129" s="12" t="n">
+        <f aca="false">E128*($C$7/$C$8)</f>
+        <v>636.112</v>
+      </c>
+      <c r="F129" s="12" t="n">
+        <f aca="false">F128*($C$7/$C$8)</f>
+        <v>642.008</v>
+      </c>
+      <c r="G129" s="12" t="n">
+        <f aca="false">G128*($C$7/$C$8)</f>
+        <v>627.68</v>
+      </c>
+      <c r="H129" s="12" t="n">
+        <f aca="false">H128*($C$7/$C$8)</f>
+        <v>731.168</v>
+      </c>
+      <c r="I129" s="12" t="n">
+        <f aca="false">I128*($C$7/$C$8)</f>
+        <v>670.712</v>
+      </c>
+      <c r="J129" s="12" t="n">
+        <f aca="false">J128*($C$7/$C$8)</f>
+        <v>655.248</v>
+      </c>
+      <c r="K129" s="12" t="n">
+        <f aca="false">K128*($C$7/$C$8)</f>
+        <v>655.248</v>
+      </c>
+      <c r="L129" s="12" t="n">
+        <f aca="false">L128*($C$7/$C$8)</f>
+        <v>568.64</v>
+      </c>
+      <c r="M129" s="12" t="n">
+        <f aca="false">M128*($C$19/$C$20)</f>
+        <v>347.56</v>
+      </c>
+      <c r="N129" s="12" t="n">
+        <f aca="false">N128*($C$19/$C$20)</f>
+        <v>386.2</v>
+      </c>
+      <c r="O129" s="12" t="n">
+        <f aca="false">O128*($C$19/$C$20)</f>
+        <v>422.21</v>
+      </c>
+      <c r="P129" s="12" t="n">
+        <f aca="false">P128*($C$19/$C$20)</f>
+        <v>454.45</v>
+      </c>
+      <c r="Q129" s="12" t="n">
+        <f aca="false">Q128*($C$19/$C$20)</f>
+        <v>507.34</v>
+      </c>
+      <c r="R129" s="12" t="n">
+        <f aca="false">R128*($C$19/$C$20)</f>
+        <v>528.94</v>
+      </c>
+      <c r="S129" s="12" t="n">
+        <f aca="false">S128*($C$19/$C$20)</f>
+        <v>568.58</v>
+      </c>
+      <c r="T129" s="12" t="n">
+        <f aca="false">T128*($C$19/$C$20)</f>
+        <v>575.19</v>
+      </c>
+      <c r="U129" s="12" t="n">
+        <f aca="false">U128*($C$19/$C$20)</f>
+        <v>620.67</v>
+      </c>
+      <c r="V129" s="12" t="n">
+        <f aca="false">V128*($C$19/$C$20)</f>
+        <v>608.71</v>
+      </c>
+      <c r="W129" s="12" t="n">
+        <f aca="false">W128*($C$19/$C$20)</f>
+        <v>610.75</v>
+      </c>
+      <c r="X129" s="12" t="n">
+        <f aca="false">X128*($C$19/$C$20)</f>
+        <v>621.99</v>
+      </c>
+      <c r="Y129" s="12" t="n">
+        <f aca="false">Y128*($C$19/$C$20)</f>
+        <v>602.39</v>
+      </c>
+      <c r="Z129" s="12" t="n">
+        <f aca="false">Z128*($C$19/$C$20)</f>
+        <v>575.34</v>
+      </c>
+      <c r="AA129" s="12" t="n">
+        <f aca="false">AA128*($C$19/$C$20)</f>
+        <v>570.31</v>
+      </c>
+      <c r="AB129" s="12" t="n">
+        <f aca="false">AB128*($C$19/$C$20)</f>
+        <v>526.85</v>
+      </c>
+      <c r="AC129" s="12" t="n">
+        <f aca="false">AC128*($C$19/$C$20)</f>
+        <v>502.86</v>
+      </c>
+      <c r="AD129" s="12" t="n">
+        <f aca="false">AD128*($C$19/$C$20)</f>
+        <v>460.56</v>
+      </c>
+      <c r="AE129" s="6" t="n">
+        <f aca="false">AE128*($C$31/$C$32)</f>
+        <v>530.146666666667</v>
+      </c>
+      <c r="AF129" s="6" t="n">
+        <f aca="false">AF128*($C$31/$C$32)</f>
+        <v>533.32</v>
+      </c>
+      <c r="AG129" s="6" t="n">
+        <f aca="false">AG128*($C$31/$C$32)</f>
+        <v>536.68</v>
+      </c>
+      <c r="AH129" s="6" t="n">
+        <f aca="false">AH128*($C$31/$C$32)</f>
+        <v>522.506666666667</v>
+      </c>
+      <c r="AI129" s="6" t="n">
+        <f aca="false">AI128*($C$31/$C$32)</f>
+        <v>508.866666666667</v>
+      </c>
+      <c r="AJ129" s="6" t="n">
+        <f aca="false">AJ128*($C$31/$C$32)</f>
+        <v>487.826666666667</v>
+      </c>
+      <c r="AK129" s="6" t="n">
+        <f aca="false">AK128*($C$31/$C$32)</f>
+        <v>466.493333333333</v>
+      </c>
+      <c r="AL129" s="6" t="n">
+        <f aca="false">AL128*($C$31/$C$32)</f>
+        <v>438.773333333333</v>
+      </c>
+      <c r="AM129" s="6" t="n">
+        <f aca="false">AM128*($C$31/$C$32)</f>
+        <v>410.76</v>
+      </c>
+      <c r="AN129" s="6" t="n">
+        <f aca="false">AN128*($C$31/$C$32)</f>
+        <v>381.786666666667</v>
+      </c>
+      <c r="AO129" s="6" t="n">
+        <f aca="false">AO128*($C$31/$C$32)</f>
+        <v>342.226666666667</v>
+      </c>
+      <c r="AP129" s="6" t="n">
+        <f aca="false">AP128*($C$31/$C$32)</f>
+        <v>311.173333333333</v>
+      </c>
+      <c r="AQ129" s="6" t="n">
+        <f aca="false">AQ128*($C$31/$C$32)</f>
+        <v>277.933333333333</v>
+      </c>
+      <c r="AR129" s="6" t="n">
+        <f aca="false">AR128*($C$31/$C$32)</f>
+        <v>246.066666666667</v>
+      </c>
+      <c r="AS129" s="6" t="n">
+        <f aca="false">AS128*($C$31/$C$32)</f>
+        <v>214.2</v>
+      </c>
+      <c r="AT129" s="6" t="n">
+        <f aca="false">AT128*($C$31/$C$32)</f>
+        <v>184.826666666667</v>
+      </c>
+      <c r="AU129" s="6" t="n">
+        <f aca="false">AU128*($C$31/$C$32)</f>
+        <v>157</v>
+      </c>
+      <c r="AV129" s="6" t="n">
+        <f aca="false">AV128*($C$31/$C$32)</f>
+        <v>133.68</v>
+      </c>
+      <c r="AW129" s="1" t="n">
+        <f aca="false">AW128*($C$43/$C$44)</f>
+        <v>30.1153846153846</v>
+      </c>
+      <c r="AX129" s="6" t="n">
+        <f aca="false">AX128*($C$43/$C$44)</f>
+        <v>26.9307692307692</v>
+      </c>
+      <c r="AY129" s="6" t="n">
+        <f aca="false">AY128*($C$43/$C$44)</f>
+        <v>23.6538461538462</v>
+      </c>
+      <c r="AZ129" s="6" t="n">
+        <f aca="false">AZ128*($C$43/$C$44)</f>
+        <v>20.6769230769231</v>
+      </c>
+      <c r="BA129" s="6" t="n">
+        <f aca="false">BA128*($C$43/$C$44)</f>
+        <v>17.7230769230769</v>
+      </c>
+      <c r="BB129" s="6" t="n">
+        <f aca="false">BB128*($C$43/$C$44)</f>
+        <v>14.9769230769231</v>
+      </c>
+      <c r="BC129" s="6" t="n">
+        <f aca="false">BC128*($C$43/$C$44)</f>
+        <v>12.5192307692308</v>
+      </c>
+      <c r="BD129" s="6" t="n">
+        <f aca="false">BD128*($C$43/$C$44)</f>
+        <v>10.3846153846154</v>
+      </c>
+      <c r="BE129" s="6" t="n">
+        <f aca="false">BE128*($C$43/$C$44)</f>
+        <v>7.85769230769231</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K130" s="0" t="n">
         <v>17.2</v>
       </c>
-      <c r="AY98" s="0" t="n">
-        <f aca="false">K28</f>
-        <v>13.17</v>
-      </c>
-      <c r="AZ98" s="0" t="n">
-        <f aca="false">L28</f>
-        <v>9.96</v>
-      </c>
-      <c r="BA98" s="0" t="n">
-        <f aca="false">M28</f>
-        <v>7.43</v>
-      </c>
-      <c r="BB98" s="0" t="n">
-        <f aca="false">N28</f>
-        <v>5.47</v>
-      </c>
-      <c r="BC98" s="0" t="n">
-        <f aca="false">O28</f>
-        <v>3.97</v>
-      </c>
-      <c r="BD98" s="0" t="n">
-        <f aca="false">P28</f>
-        <v>2.85</v>
-      </c>
-      <c r="BE98" s="0" t="n">
-        <f aca="false">Q28</f>
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="9" t="n">
-        <f aca="false">D98*($C$8/1000)</f>
-        <v>677.075</v>
-      </c>
-      <c r="E99" s="9" t="n">
-        <f aca="false">E98*($C$8/1000)</f>
-        <v>722.0375</v>
-      </c>
-      <c r="F99" s="9" t="n">
-        <f aca="false">F98*($C$8/1000)</f>
-        <v>766</v>
-      </c>
-      <c r="G99" s="9" t="n">
-        <f aca="false">G98*($C$8/1000)</f>
-        <v>795.2625</v>
-      </c>
-      <c r="H99" s="9" t="n">
-        <f aca="false">H98*($C$8/1000)</f>
-        <v>811.2625</v>
-      </c>
-      <c r="I99" s="9" t="n">
-        <f aca="false">I98*($C$8/1000)</f>
-        <v>815.325</v>
-      </c>
-      <c r="J99" s="9" t="n">
-        <f aca="false">J98*($C$8/1000)</f>
-        <v>805.45</v>
-      </c>
-      <c r="K99" s="9" t="n">
-        <f aca="false">K98*($C$8/1000)</f>
-        <v>782.475</v>
-      </c>
-      <c r="L99" s="9" t="n">
-        <f aca="false">L98*($C$8/1000)</f>
-        <v>750.2625</v>
-      </c>
-      <c r="M99" s="9" t="n">
-        <f aca="false">M98*($C$8/1000)</f>
-        <v>705.0125</v>
-      </c>
-      <c r="N99" s="9" t="n">
-        <f aca="false">N98*($C$8/1000)</f>
-        <v>651.4625</v>
-      </c>
-      <c r="O99" s="9" t="n">
-        <f aca="false">O98*($C$8/1000)</f>
-        <v>592.325</v>
-      </c>
-      <c r="P99" s="9" t="n">
-        <f aca="false">P98*($C$8/1000)</f>
-        <v>530.325</v>
-      </c>
-      <c r="Q99" s="9" t="n">
-        <f aca="false">Q98*($C$8/1000)</f>
-        <v>467.975</v>
-      </c>
-      <c r="R99" s="9" t="n">
-        <f aca="false">R98*($C$8/1000)</f>
-        <v>404.375</v>
-      </c>
-      <c r="S99" s="9" t="n">
-        <f aca="false">S98*($C$8/1000)</f>
-        <v>344.875</v>
-      </c>
-      <c r="T99" s="9" t="n">
-        <f aca="false">T98*($C$8/1000)</f>
-        <v>288.375</v>
-      </c>
-      <c r="U99" s="9" t="n">
-        <f aca="false">U98*($C$8/1000)</f>
-        <v>238.4875</v>
-      </c>
-      <c r="V99" s="0" t="n">
-        <f aca="false">V98*($C$20/1000)</f>
-        <v>586.196</v>
-      </c>
-      <c r="W99" s="0" t="n">
-        <f aca="false">W98*($C$20/1000)</f>
-        <v>628.797</v>
-      </c>
-      <c r="X99" s="0" t="n">
-        <f aca="false">X98*($C$20/1000)</f>
-        <v>664.625</v>
-      </c>
-      <c r="Y99" s="0" t="n">
-        <f aca="false">Y98*($C$20/1000)</f>
-        <v>692.861</v>
-      </c>
-      <c r="Z99" s="0" t="n">
-        <f aca="false">Z98*($C$20/1000)</f>
-        <v>711.165</v>
-      </c>
-      <c r="AA99" s="0" t="n">
-        <f aca="false">AA98*($C$20/1000)</f>
-        <v>719.121</v>
-      </c>
-      <c r="AB99" s="0" t="n">
-        <f aca="false">AB98*($C$20/1000)</f>
-        <v>716.508</v>
-      </c>
-      <c r="AC99" s="0" t="n">
-        <f aca="false">AC98*($C$20/1000)</f>
-        <v>703.495</v>
-      </c>
-      <c r="AD99" s="0" t="n">
-        <f aca="false">AD98*($C$20/1000)</f>
-        <v>680.225</v>
-      </c>
-      <c r="AE99" s="0" t="n">
-        <f aca="false">AE98*($C$20/1000)</f>
-        <v>648.219</v>
-      </c>
-      <c r="AF99" s="0" t="n">
-        <f aca="false">AF98*($C$20/1000)</f>
-        <v>608.426</v>
-      </c>
-      <c r="AG99" s="0" t="n">
-        <f aca="false">AG98*($C$20/1000)</f>
-        <v>562.614</v>
-      </c>
-      <c r="AH99" s="0" t="n">
-        <f aca="false">AH98*($C$20/1000)</f>
-        <v>511.992</v>
-      </c>
-      <c r="AI99" s="0" t="n">
-        <f aca="false">AI98*($C$20/1000)</f>
-        <v>459.446</v>
-      </c>
-      <c r="AJ99" s="0" t="n">
-        <f aca="false">AJ98*($C$20/1000)</f>
-        <v>406.185</v>
-      </c>
-      <c r="AK99" s="0" t="n">
-        <f aca="false">AK98*($C$20/1000)</f>
-        <v>354.003</v>
-      </c>
-      <c r="AL99" s="0" t="n">
-        <f aca="false">AL98*($C$20/1000)</f>
-        <v>303.836</v>
-      </c>
-      <c r="AM99" s="0" t="n">
-        <f aca="false">AM98*($C$20/1000)</f>
-        <v>257.023</v>
-      </c>
-      <c r="AN99" s="0" t="n">
-        <f aca="false">AN98*($C$20/1000)</f>
-        <v>214.058</v>
-      </c>
-      <c r="AO99" s="0" t="n">
-        <f aca="false">AO98*($C$20/1000)</f>
-        <v>175.344</v>
-      </c>
-      <c r="AP99" s="0" t="n">
-        <f aca="false">AP98*($C$20/1000)</f>
-        <v>141.96</v>
-      </c>
-      <c r="AQ99" s="0" t="n">
-        <f aca="false">AQ98*($C$20/1000)</f>
-        <v>113.074</v>
-      </c>
-      <c r="AR99" s="0" t="n">
-        <f aca="false">AR98*($C$32/1000)</f>
-        <v>88.712</v>
-      </c>
-      <c r="AS99" s="0" t="n">
-        <f aca="false">AS98*($C$32/1000)</f>
-        <v>69.381</v>
-      </c>
-      <c r="AT99" s="0" t="n">
-        <f aca="false">AT98*($C$32/1000)</f>
-        <v>56.797</v>
-      </c>
-      <c r="AU99" s="0" t="n">
-        <f aca="false">AU98*($C$32/1000)</f>
-        <v>45.89</v>
-      </c>
-      <c r="AV99" s="0" t="n">
-        <f aca="false">AV98*($C$32/1000)</f>
-        <v>36.621</v>
-      </c>
-      <c r="AW99" s="0" t="n">
-        <f aca="false">AW98*($C$32/1000)</f>
-        <v>28.795</v>
-      </c>
-      <c r="AX99" s="0" t="n">
-        <f aca="false">AX98*($C$32/1000)</f>
-        <v>22.36</v>
-      </c>
-      <c r="AY99" s="0" t="n">
-        <f aca="false">AY98*($C$32/1000)</f>
-        <v>17.121</v>
-      </c>
-      <c r="AZ99" s="0" t="n">
-        <f aca="false">AZ98*($C$32/1000)</f>
-        <v>12.948</v>
-      </c>
-      <c r="BA99" s="0" t="n">
-        <f aca="false">BA98*($C$32/1000)</f>
-        <v>9.659</v>
-      </c>
-      <c r="BB99" s="0" t="n">
-        <f aca="false">BB98*($C$32/1000)</f>
-        <v>7.111</v>
-      </c>
-      <c r="BC99" s="0" t="n">
-        <f aca="false">BC98*($C$32/1000)</f>
-        <v>5.161</v>
-      </c>
-      <c r="BD99" s="0" t="n">
-        <f aca="false">BD98*($C$32/1000)</f>
-        <v>3.705</v>
-      </c>
-      <c r="BE99" s="0" t="n">
-        <f aca="false">BE98*($C$32/1000)</f>
-        <v>2.613</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="E100" s="0" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F100" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G100" s="0" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="I100" s="0" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J100" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K100" s="0" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="L100" s="0" t="n">
+      <c r="L130" s="0" t="n">
         <v>18.4</v>
       </c>
-      <c r="M100" s="0" t="n">
+      <c r="M130" s="0" t="n">
         <v>19.8</v>
       </c>
-      <c r="N100" s="0" t="n">
+      <c r="N130" s="0" t="n">
         <v>21.3</v>
       </c>
-      <c r="O100" s="0" t="n">
+      <c r="O130" s="0" t="n">
         <v>22.9</v>
       </c>
-      <c r="P100" s="0" t="n">
+      <c r="P130" s="0" t="n">
         <v>24.6</v>
       </c>
-      <c r="Q100" s="0" t="n">
+      <c r="Q130" s="0" t="n">
         <v>26.4</v>
       </c>
-      <c r="R100" s="0" t="n">
+      <c r="R130" s="0" t="n">
         <v>28.4</v>
       </c>
-      <c r="S100" s="0" t="n">
+      <c r="S130" s="0" t="n">
         <v>30.5</v>
       </c>
-      <c r="T100" s="0" t="n">
+      <c r="T130" s="0" t="n">
         <v>32.8</v>
       </c>
-      <c r="U100" s="0" t="n">
+      <c r="U130" s="0" t="n">
         <v>35.2</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="V130" s="0" t="n">
         <v>37.9</v>
       </c>
-      <c r="W100" s="0" t="n">
+      <c r="W130" s="0" t="n">
         <v>40.7</v>
       </c>
-      <c r="X100" s="0" t="n">
+      <c r="X130" s="0" t="n">
         <v>43.7</v>
       </c>
-      <c r="Y100" s="0" t="n">
+      <c r="Y130" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="Z100" s="0" t="n">
+      <c r="Z130" s="0" t="n">
         <v>50.5</v>
       </c>
-      <c r="AA100" s="0" t="n">
+      <c r="AA130" s="0" t="n">
         <v>54.2</v>
       </c>
-      <c r="AB100" s="0" t="n">
+      <c r="AB130" s="0" t="n">
         <v>58.3</v>
       </c>
-      <c r="AC100" s="0" t="n">
+      <c r="AC130" s="0" t="n">
         <v>62.6</v>
       </c>
-      <c r="AD100" s="0" t="n">
+      <c r="AD130" s="0" t="n">
         <v>67.3</v>
       </c>
-      <c r="AE100" s="0" t="n">
+      <c r="AE130" s="0" t="n">
         <v>72.3</v>
       </c>
-      <c r="AF100" s="0" t="n">
+      <c r="AF130" s="0" t="n">
         <v>77.7</v>
       </c>
-      <c r="AG100" s="0" t="n">
+      <c r="AG130" s="0" t="n">
         <v>83.5</v>
       </c>
-      <c r="AH100" s="0" t="n">
+      <c r="AH130" s="0" t="n">
         <v>89.8</v>
       </c>
-      <c r="AI100" s="0" t="n">
+      <c r="AI130" s="0" t="n">
         <v>96.5</v>
       </c>
-      <c r="AJ100" s="0" t="n">
+      <c r="AJ130" s="0" t="n">
         <v>103.7</v>
       </c>
-      <c r="AK100" s="0" t="n">
+      <c r="AK130" s="0" t="n">
         <v>111.4</v>
       </c>
-      <c r="AL100" s="0" t="n">
+      <c r="AL130" s="0" t="n">
         <v>119.7</v>
       </c>
-      <c r="AM100" s="0" t="n">
+      <c r="AM130" s="0" t="n">
         <v>128.6</v>
       </c>
-      <c r="AN100" s="0" t="n">
+      <c r="AN130" s="0" t="n">
         <v>138.2</v>
       </c>
-      <c r="AO100" s="0" t="n">
+      <c r="AO130" s="0" t="n">
         <v>148.6</v>
       </c>
-      <c r="AP100" s="0" t="n">
+      <c r="AP130" s="0" t="n">
         <v>159.6</v>
       </c>
-      <c r="AQ100" s="0" t="n">
+      <c r="AQ130" s="0" t="n">
         <v>171.5</v>
       </c>
-      <c r="AR100" s="2" t="n">
+      <c r="AR130" s="0" t="n">
         <v>184.3</v>
       </c>
-      <c r="AS100" s="0" t="n">
+      <c r="AS130" s="0" t="n">
         <v>198.1</v>
       </c>
-      <c r="AT100" s="0" t="n">
+      <c r="AT130" s="0" t="n">
         <v>212.9</v>
       </c>
-      <c r="AU100" s="0" t="n">
+      <c r="AU130" s="0" t="n">
         <v>228.8</v>
       </c>
-      <c r="AV100" s="0" t="n">
+      <c r="AV130" s="0" t="n">
         <v>245.8</v>
       </c>
-      <c r="AW100" s="0" t="n">
+      <c r="AW130" s="2" t="n">
         <v>264.2</v>
       </c>
-      <c r="AX100" s="0" t="n">
+      <c r="AX130" s="0" t="n">
         <v>283.9</v>
       </c>
-      <c r="AY100" s="0" t="n">
+      <c r="AY130" s="0" t="n">
         <v>305.1</v>
       </c>
-      <c r="AZ100" s="0" t="n">
+      <c r="AZ130" s="0" t="n">
         <v>327.8</v>
       </c>
-      <c r="BA100" s="0" t="n">
+      <c r="BA130" s="0" t="n">
         <v>352.3</v>
       </c>
-      <c r="BB100" s="0" t="n">
+      <c r="BB130" s="0" t="n">
         <v>378.6</v>
       </c>
-      <c r="BC100" s="0" t="n">
+      <c r="BC130" s="0" t="n">
         <v>406.8</v>
       </c>
-      <c r="BD100" s="0" t="n">
+      <c r="BD130" s="0" t="n">
         <v>437.1</v>
       </c>
-      <c r="BE100" s="0" t="n">
+      <c r="BE130" s="0" t="n">
         <v>469.8</v>
       </c>
     </row>
+    <row r="131" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8074,17 +8744,669 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="15.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1008" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>526</v>
+      </c>
+      <c r="D2" s="16" t="n">
+        <v>597.53</v>
+      </c>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>653</v>
+      </c>
+      <c r="D3" s="16" t="n">
+        <v>795.14</v>
+      </c>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>716</v>
+      </c>
+      <c r="D4" s="16" t="n">
+        <v>802.51</v>
+      </c>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>709</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>784.6</v>
+      </c>
+      <c r="F5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>665</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>913.96</v>
+      </c>
+      <c r="F6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>635</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>838.39</v>
+      </c>
+      <c r="F7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>819.06</v>
+      </c>
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>627</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>710.8</v>
+      </c>
+      <c r="F9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>796</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>707.22</v>
+      </c>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>793</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>347.56</v>
+      </c>
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>710</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="F12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>661</v>
+      </c>
+      <c r="D13" s="16" t="n">
+        <v>422.21</v>
+      </c>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>641</v>
+      </c>
+      <c r="D14" s="16" t="n">
+        <v>454.45</v>
+      </c>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>579</v>
+      </c>
+      <c r="D15" s="16" t="n">
+        <v>507.34</v>
+      </c>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>542</v>
+      </c>
+      <c r="D16" s="16" t="n">
+        <v>528.94</v>
+      </c>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>525</v>
+      </c>
+      <c r="D17" s="16" t="n">
+        <v>568.58</v>
+      </c>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="D18" s="16" t="n">
+        <v>575.19</v>
+      </c>
+      <c r="F18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>561</v>
+      </c>
+      <c r="D19" s="16" t="n">
+        <v>620.67</v>
+      </c>
+      <c r="F19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="D20" s="16" t="n">
+        <v>608.71</v>
+      </c>
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>592</v>
+      </c>
+      <c r="D21" s="16" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>620</v>
+      </c>
+      <c r="D22" s="16" t="n">
+        <v>621.99</v>
+      </c>
+      <c r="F22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="D23" s="16" t="n">
+        <v>602.39</v>
+      </c>
+      <c r="F23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="D24" s="16" t="n">
+        <v>575.34</v>
+      </c>
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>696</v>
+      </c>
+      <c r="D25" s="16" t="n">
+        <v>570.31</v>
+      </c>
+      <c r="F25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>676</v>
+      </c>
+      <c r="D26" s="16" t="n">
+        <v>526.85</v>
+      </c>
+      <c r="F26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>658</v>
+      </c>
+      <c r="D27" s="16" t="n">
+        <v>502.86</v>
+      </c>
+      <c r="F27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>656</v>
+      </c>
+      <c r="D28" s="16" t="n">
+        <v>460.56</v>
+      </c>
+      <c r="F28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>641</v>
+      </c>
+      <c r="D29" s="16" t="n">
+        <v>397.61</v>
+      </c>
+      <c r="F29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>625</v>
+      </c>
+      <c r="D30" s="16" t="n">
+        <v>399.99</v>
+      </c>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>579</v>
+      </c>
+      <c r="D31" s="16" t="n">
+        <v>402.51</v>
+      </c>
+      <c r="F31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>526</v>
+      </c>
+      <c r="D32" s="16" t="n">
+        <v>391.88</v>
+      </c>
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="D33" s="16" t="n">
+        <v>381.65</v>
+      </c>
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="D34" s="16" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="D35" s="16" t="n">
+        <v>349.87</v>
+      </c>
+      <c r="F35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="D36" s="16" t="n">
+        <v>329.08</v>
+      </c>
+      <c r="F36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="D37" s="16" t="n">
+        <v>308.07</v>
+      </c>
+      <c r="F37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="D38" s="16" t="n">
+        <v>286.34</v>
+      </c>
+      <c r="F38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="D39" s="16" t="n">
+        <v>256.67</v>
+      </c>
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="D40" s="16" t="n">
+        <v>233.38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D41" s="16" t="n">
+        <v>208.45</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D42" s="16" t="n">
+        <v>184.55</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D43" s="16" t="n">
+        <v>160.65</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D44" s="16" t="n">
+        <v>138.62</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D45" s="16" t="n">
+        <v>117.75</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="16" t="n">
+        <v>100.26</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D47" s="16" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="n">
+        <v>283.9</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D48" s="16" t="n">
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="n">
+        <v>305.1</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D49" s="16" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="n">
+        <v>327.8</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D50" s="16" t="n">
+        <v>17.92</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="n">
+        <v>352.3</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" s="16" t="n">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="n">
+        <v>378.6</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" s="16" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="n">
+        <v>406.8</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D53" s="16" t="n">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="n">
+        <v>437.1</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" s="16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="n">
+        <v>469.8</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" s="16" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
